--- a/data/georgia_census/adjara/xulo/age_dependency.xlsx
+++ b/data/georgia_census/adjara/xulo/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B104A186-E5CB-4C50-9728-D0A0F3B0D57F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA537EDE-772B-43DB-989A-04C025A4DB43}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4843E87B-2AF0-4245-8F04-79106E7E5075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47855888-6764-44ED-9A17-C78E8C53EA1E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4FC9A6-104C-47ED-B800-409F776E85C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85BEED8A-C15A-4F51-AF58-E80D4E6C74CC}"/>
 </file>